--- a/all_avg_num_ridesV2.xlsx
+++ b/all_avg_num_ridesV2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\Divvy\Time_data\analysed data\analysed_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F29F6C-5439-4175-8000-05E3B6569233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8007765B-EB8D-47DA-B7F6-940AC05F91BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="675" windowWidth="15600" windowHeight="9360" xr2:uid="{CA48BA60-5794-4CD3-A225-542F030D5F55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA48BA60-5794-4CD3-A225-542F030D5F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="23">
   <si>
     <t>member_casual</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>Q4-2021</t>
-  </si>
-  <si>
-    <t>Casual</t>
-  </si>
-  <si>
-    <t>Member</t>
   </si>
   <si>
     <t>Avg_trip (minutes)</t>
@@ -472,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACCB557-0DB1-4FD9-8395-7DC1C11FBEF0}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -504,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -524,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -544,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -564,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -584,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -604,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -624,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -644,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -664,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -684,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -704,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -724,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -744,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -764,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -784,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -804,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -824,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -844,7 +838,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -864,7 +858,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -884,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -904,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -924,7 +918,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -944,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -964,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -984,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1004,7 +998,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1024,7 +1018,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1044,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1064,7 +1058,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1084,7 +1078,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1104,7 +1098,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1124,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1144,7 +1138,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1164,7 +1158,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1184,7 +1178,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1204,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1224,7 +1218,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1244,7 +1238,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1264,7 +1258,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1284,7 +1278,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1304,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1324,7 +1318,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -1344,7 +1338,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1364,7 +1358,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1384,7 +1378,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1404,7 +1398,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1424,7 +1418,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1444,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1464,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1484,7 +1478,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1504,7 +1498,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1524,7 +1518,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1544,7 +1538,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1564,7 +1558,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1584,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -1604,7 +1598,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -1624,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -1644,7 +1638,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1664,7 +1658,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1684,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1704,7 +1698,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1724,7 +1718,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1744,7 +1738,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1764,7 +1758,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1784,7 +1778,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1804,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1824,7 +1818,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1844,7 +1838,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1864,7 +1858,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -1884,7 +1878,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
